--- a/TP1/Resultados/4_1_Reglas_DemográficasResumen.xlsx
+++ b/TP1/Resultados/4_1_Reglas_DemográficasResumen.xlsx
@@ -15,14 +15,15 @@
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet5!$A$1:$I$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet5!$A$1:$I$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet5!$A$1:$I$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>rules</t>
   </si>
@@ -391,6 +392,9 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>Transacciones</t>
   </si>
   <si>
     <t>Producto</t>
@@ -413,11 +417,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -439,6 +444,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,6 +529,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +546,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,7 +636,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1244,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1547,28 +1572,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>0.00762267746545974</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>0.615384615384615</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>9.27051895472948</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="6" t="n">
         <v>384.101570947729</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="6" t="n">
         <v>0.26583110414196</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="6" t="n">
         <v>0.365108575634891</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="6" t="n">
         <v>0.758928571428572</v>
       </c>
     </row>
@@ -1809,7 +1834,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1824,8 +1849,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1867,80 +1892,80 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="8" t="n">
         <v>0.00539939653803398</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="8" t="n">
         <v>0.971428571428571</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="8" t="n">
         <v>32.026626776365</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="8" t="n">
         <v>1059.82550011147</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="8" t="n">
         <v>0.41584186626795</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="8" t="n">
         <v>0.57471952131638</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="8" t="n">
         <v>0.8125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="8" t="n">
         <v>0.00809909480705098</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.85</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="8" t="n">
         <v>28.0232984293194</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="8" t="n">
         <v>1383.76544595335</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="8" t="n">
         <v>0.476406707326146</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="8" t="n">
         <v>0.558507853403141</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="8" t="n">
         <v>0.655</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="8" t="n">
         <v>0.00571700809909481</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="8" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="8" t="n">
         <v>30.4325412807088</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="8" t="n">
         <v>1063.39553492058</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="8" t="n">
         <v>0.417112796468592</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="8" t="n">
         <v>0.555779299234797</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="8" t="n">
         <v>0.783505154639175</v>
       </c>
     </row>
@@ -2389,7 +2414,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2404,7 +2429,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3776,7 +3801,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3789,45 +3814,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,7 +3865,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -3857,6 +3887,10 @@
       </c>
       <c r="I2" s="2" t="n">
         <v>0.723076923076923</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">6297*C2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0.00524059075750357</v>
@@ -3886,6 +3920,10 @@
       </c>
       <c r="I3" s="2" t="n">
         <v>0.746153846153846</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">6297*C3</f>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3931,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0.0055582023185644</v>
@@ -3915,6 +3953,10 @@
       </c>
       <c r="I4" s="2" t="n">
         <v>0.717557251908397</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">6297*C4</f>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,7 +3964,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -3944,6 +3986,10 @@
       </c>
       <c r="I5" s="2" t="n">
         <v>0.68</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">6297*C5</f>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,7 +3997,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0106399872955376</v>
@@ -3973,6 +4019,10 @@
       </c>
       <c r="I6" s="2" t="n">
         <v>0.579207920792079</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">6297*C6</f>
+        <v>67.0000000000003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.00524059075750357</v>
@@ -4002,6 +4052,10 @@
       </c>
       <c r="I7" s="2" t="n">
         <v>0.732824427480916</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">6297*C7</f>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,7 +4063,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4031,6 +4085,10 @@
       </c>
       <c r="I8" s="2" t="n">
         <v>0.696969696969697</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">6297*C8</f>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +4096,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4060,6 +4118,10 @@
       </c>
       <c r="I9" s="2" t="n">
         <v>0.623931623931624</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">6297*C9</f>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.00508178497697316</v>
@@ -4089,6 +4151,10 @@
       </c>
       <c r="I10" s="2" t="n">
         <v>0.740458015267176</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">6297*C10</f>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.0055582023185644</v>
@@ -4118,6 +4184,10 @@
       </c>
       <c r="I11" s="2" t="n">
         <v>0.632478632478632</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">6297*C11</f>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4147,6 +4217,10 @@
       </c>
       <c r="I12" s="2" t="n">
         <v>0.676923076923077</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">6297*C12</f>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4228,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.00539939653803398</v>
@@ -4176,6 +4250,10 @@
       </c>
       <c r="I13" s="2" t="n">
         <v>0.712121212121212</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">6297*C13</f>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4261,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.00524059075750357</v>
@@ -4205,6 +4283,10 @@
       </c>
       <c r="I14" s="2" t="n">
         <v>0.582524271844661</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">6297*C14</f>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,7 +4294,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4235,63 +4317,75 @@
       <c r="I15" s="2" t="n">
         <v>0.68421052631579</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">6297*C15</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>0.00539939653803398</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>0.971428571428571</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="8" t="n">
         <v>32.026626776365</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="8" t="n">
         <v>1059.82550011147</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="8" t="n">
         <v>0.41584186626795</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="8" t="n">
         <v>0.57471952131638</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="8" t="n">
         <v>0.8125</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">6297*C16</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>0.00809909480705098</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8" t="n">
         <v>0.85</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="8" t="n">
         <v>28.0232984293194</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="8" t="n">
         <v>1383.76544595335</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="8" t="n">
         <v>0.476406707326146</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="8" t="n">
         <v>0.558507853403141</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="8" t="n">
         <v>0.655</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">6297*C17</f>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4393,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0638399237732254</v>
@@ -4322,34 +4416,42 @@
       <c r="I18" s="2" t="n">
         <v>0.632198952879581</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">6297*C18</f>
+        <v>402</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>0.00571700809909481</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="8" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="8" t="n">
         <v>30.4325412807088</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="8" t="n">
         <v>1063.39553492058</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="8" t="n">
         <v>0.417112796468592</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="8" t="n">
         <v>0.555779299234797</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="8" t="n">
         <v>0.783505154639175</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">6297*C19</f>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4459,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.00508178497697316</v>
@@ -4379,6 +4481,10 @@
       </c>
       <c r="I20" s="2" t="n">
         <v>0.976076555023923</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">6297*C20</f>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4492,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.00968715261235509</v>
@@ -4408,6 +4514,10 @@
       </c>
       <c r="I21" s="2" t="n">
         <v>0.830882352941176</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">6297*C21</f>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,7 +4525,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.00619342544068604</v>
@@ -4437,6 +4547,10 @@
       </c>
       <c r="I22" s="2" t="n">
         <v>0.638211382113821</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">6297*C22</f>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4558,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0055582023185644</v>
@@ -4466,6 +4580,10 @@
       </c>
       <c r="I23" s="2" t="n">
         <v>0.681818181818182</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">6297*C23</f>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,7 +4591,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4495,6 +4613,10 @@
       </c>
       <c r="I24" s="2" t="n">
         <v>0.97227533460803</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">6297*C24</f>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4624,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.00587581387962522</v>
@@ -4524,6 +4646,10 @@
       </c>
       <c r="I25" s="2" t="n">
         <v>0.983181299885975</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">6297*C25</f>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4657,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0069874543433381</v>
@@ -4553,6 +4679,10 @@
       </c>
       <c r="I26" s="2" t="n">
         <v>0.96563245823389</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">6297*C26</f>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4690,7 @@
         <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4582,6 +4712,10 @@
       </c>
       <c r="I27" s="2" t="n">
         <v>0.983466362599772</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">6297*C27</f>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,7 +4723,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.00714626012386851</v>
@@ -4611,6 +4745,10 @@
       </c>
       <c r="I28" s="2" t="n">
         <v>0.75968992248062</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">6297*C28</f>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,7 +4756,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.00619342544068604</v>
@@ -4640,6 +4778,10 @@
       </c>
       <c r="I29" s="2" t="n">
         <v>0.982046166999145</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">6297*C29</f>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4789,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0182626647609973</v>
@@ -4669,6 +4811,10 @@
       </c>
       <c r="I30" s="2" t="n">
         <v>0.747379454926625</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">6297*C30</f>
+        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4822,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0120692393203113</v>
@@ -4698,6 +4844,10 @@
       </c>
       <c r="I31" s="2" t="n">
         <v>0.774891774891775</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">6297*C31</f>
+        <v>76.0000000000003</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4855,7 @@
         <v>84</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.00524059075750357</v>
@@ -4727,6 +4877,10 @@
       </c>
       <c r="I32" s="2" t="n">
         <v>0.96619545175169</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">6297*C32</f>
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4888,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4756,6 +4910,10 @@
       </c>
       <c r="I33" s="2" t="n">
         <v>0.971333014811276</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">6297*C33</f>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,7 +4921,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0106399872955376</v>
@@ -4785,6 +4943,10 @@
       </c>
       <c r="I34" s="2" t="n">
         <v>0.862106406080347</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">6297*C34</f>
+        <v>67.0000000000003</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +4954,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.00651103700174687</v>
@@ -4814,6 +4976,10 @@
       </c>
       <c r="I35" s="2" t="n">
         <v>0.980347479350612</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">6297*C35</f>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4987,7 @@
         <v>87</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.00587581387962522</v>
@@ -4843,6 +5009,10 @@
       </c>
       <c r="I36" s="2" t="n">
         <v>0.982051282051282</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">6297*C36</f>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +5020,7 @@
         <v>88</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.00524059075750357</v>
@@ -4872,6 +5042,10 @@
       </c>
       <c r="I37" s="2" t="n">
         <v>0.972766364070712</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">6297*C37</f>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,7 +5053,7 @@
         <v>89</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.00539939653803398</v>
@@ -4901,6 +5075,10 @@
       </c>
       <c r="I38" s="2" t="n">
         <v>0.983471074380165</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">6297*C38</f>
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +5086,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.00889312370970303</v>
@@ -4930,6 +5108,10 @@
       </c>
       <c r="I39" s="2" t="n">
         <v>0.8661800486618</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">6297*C39</f>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,7 +5119,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.00571700809909481</v>
@@ -4959,6 +5141,10 @@
       </c>
       <c r="I40" s="2" t="n">
         <v>0.982336182336182</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">6297*C40</f>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +5152,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.00730506590439892</v>
@@ -4988,6 +5174,10 @@
       </c>
       <c r="I41" s="2" t="n">
         <v>0.863905325443787</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">6297*C41</f>
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +5185,7 @@
         <v>65</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>0.0069874543433381</v>
@@ -5017,6 +5207,10 @@
       </c>
       <c r="I42" s="2" t="n">
         <v>0.86962962962963</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">6297*C42</f>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5218,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>0.0404954740352549</v>
@@ -5047,998 +5241,1171 @@
       <c r="I43" s="2" t="n">
         <v>0.857497243660419</v>
       </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">6297*C43</f>
+        <v>255</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>92</v>
+      <c r="A44" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>0.00508178497697316</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>2.15178600032036</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>29.6785245668355</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>0.104570138041839</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0.363244166800149</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.972301814708692</v>
+        <v>127</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0.00762267746545974</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>9.27051895472948</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>384.101570947729</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.26583110414196</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.365108575634891</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>0.758928571428572</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">6297*C44</f>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.0055582023185644</v>
+        <v>0.00508178497697316</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.28620450181788</v>
+        <v>2.15178600032036</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>5.05218534495767</v>
+        <v>29.6785245668355</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.0845516696709895</v>
+        <v>0.104570138041839</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.362147146533764</v>
+        <v>0.363244166800149</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.982056394189689</v>
+        <v>0.972301814708692</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">6297*C45</f>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.00619342544068604</v>
+        <v>0.0055582023185644</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.609375</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>10.9949409025788</v>
+        <v>1.28620450181788</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>378.993244405049</v>
+        <v>5.05218534495767</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.260952767191442</v>
+        <v>0.0845516696709895</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.360561425501433</v>
+        <v>0.362147146533764</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.762032085561497</v>
+        <v>0.982056394189689</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">6297*C46</f>
+        <v>35</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.00857551214864221</v>
+        <v>0.00619342544068604</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.627906976744186</v>
+        <v>0.609375</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>6.66767324208793</v>
+        <v>10.9949409025788</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>291.175882039828</v>
+        <v>378.993244405049</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.239120707783123</v>
+        <v>0.260952767191442</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.359484685673948</v>
+        <v>0.360561425501433</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.8112</v>
+        <v>0.762032085561497</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">6297*C47</f>
+        <v>39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.00682864856280769</v>
+        <v>0.00857551214864221</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.704918032786885</v>
+        <v>0.627906976744186</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.26933624605634</v>
+        <v>6.66767324208793</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>5.58064797464943</v>
+        <v>291.175882039828</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.0931012950089972</v>
+        <v>0.239120707783123</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.358607143359413</v>
+        <v>0.359484685673948</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.977524893314367</v>
+        <v>0.8112</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">6297*C48</f>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.00619342544068604</v>
+        <v>0.00682864856280769</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.696428571428571</v>
+        <v>0.704918032786885</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1.25404938927244</v>
+        <v>1.26933624605634</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>4.55450778895146</v>
+        <v>5.58064797464943</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.0881297985439471</v>
+        <v>0.0931012950089972</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.353790493892724</v>
+        <v>0.358607143359413</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.979225953329539</v>
+        <v>0.977524893314367</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">6297*C49</f>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.0119104335397808</v>
+        <v>0.00619342544068604</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.681818181818182</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.22774066082616</v>
+        <v>1.25404938927244</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>7.25212057919737</v>
+        <v>4.55450778895146</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.12092528083431</v>
+        <v>0.0881297985439471</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0.351632568175319</v>
+        <v>0.353790493892724</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0.958946772366931</v>
+        <v>0.979225953329539</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">6297*C50</f>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.00762267746545974</v>
+        <v>0.0119104335397808</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.685714285714286</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.23475632174517</v>
+        <v>1.22774066082616</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>4.87219947852173</v>
+        <v>7.25212057919737</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.0970162315754475</v>
+        <v>0.12092528083431</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0.349720168307529</v>
+        <v>0.351632568175319</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0.973856209150327</v>
+        <v>0.958946772366931</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">6297*C51</f>
+        <v>74.9999999999997</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.00794028902652056</v>
+        <v>0.00762267746545974</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.684931506849315</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1.23334678256509</v>
+        <v>1.23475632174517</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>5.02259551663119</v>
+        <v>4.87219947852173</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.0989602441564089</v>
+        <v>0.0970162315754475</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.34961473826881</v>
+        <v>0.349720168307529</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0.972727272727273</v>
+        <v>0.973856209150327</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">6297*C52</f>
+        <v>48</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.00539939653803398</v>
+        <v>0.00794028902652056</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.653846153846154</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>5.29211983389361</v>
+        <v>1.23334678256509</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>136.165622130586</v>
+        <v>5.02259551663119</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.169039207020106</v>
+        <v>0.0989602441564089</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.348773976666007</v>
+        <v>0.34961473826881</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0.912060301507538</v>
+        <v>0.972727272727273</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">6297*C53</f>
+        <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.0098459583928855</v>
+        <v>0.00539939653803398</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.01729937530034</v>
+        <v>5.29211983389361</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>48.2185211272101</v>
+        <v>136.165622130586</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>0.140933479752687</v>
+        <v>0.169039207020106</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0.348230017619734</v>
+        <v>0.348773976666007</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0.941287878787879</v>
+        <v>0.912060301507538</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">6297*C54</f>
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.00508178497697316</v>
+        <v>0.0098459583928855</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.653061224489796</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>5.28576674885893</v>
+        <v>2.01729937530034</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>127.86892600652</v>
+        <v>48.2185211272101</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>0.163893654715903</v>
+        <v>0.140933479752687</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0.347096164944127</v>
+        <v>0.348230017619734</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0.916981132075472</v>
+        <v>0.941287878787879</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">6297*C55</f>
+        <v>62</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.00968715261235509</v>
+        <v>0.00508178497697316</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.663043478260869</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.00633579173892</v>
+        <v>5.28576674885893</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>46.6699194515863</v>
+        <v>127.86892600652</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0.139411911278073</v>
+        <v>0.163893654715903</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0.346178154315442</v>
+        <v>0.347096164944127</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0.941761363636364</v>
+        <v>0.916981132075472</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">6297*C56</f>
+        <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.0055582023185644</v>
+        <v>0.00968715261235509</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.660377358490566</v>
+        <v>0.663043478260869</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.87182059835297</v>
+        <v>2.00633579173892</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>55.923132548311</v>
+        <v>46.6699194515863</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>0.126341441768987</v>
+        <v>0.139411911278073</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0.342274314604399</v>
+        <v>0.346178154315442</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0.951568894952251</v>
+        <v>0.941761363636364</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">6297*C57</f>
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.00921073527076386</v>
+        <v>0.0055582023185644</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.610526315789474</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>4.83582919563059</v>
+        <v>2.87182059835297</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>205.064555057282</v>
+        <v>55.923132548311</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>0.211048673380299</v>
+        <v>0.126341441768987</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>0.341741145316121</v>
+        <v>0.342274314604399</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0.841346153846154</v>
+        <v>0.951568894952251</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">6297*C58</f>
+        <v>35</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.00714626012386851</v>
+        <v>0.00921073527076386</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.661764705882353</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.00246629165842</v>
+        <v>4.83582919563059</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>34.0985027359199</v>
+        <v>205.064555057282</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>0.11962501832589</v>
+        <v>0.211048673380299</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>0.341694462503887</v>
+        <v>0.341741145316121</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0.956749049429658</v>
+        <v>0.841346153846154</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">6297*C59</f>
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.00682864856280769</v>
+        <v>0.00714626012386851</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.661538461538462</v>
+        <v>0.661764705882353</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.00178168779803</v>
+        <v>2.00246629165842</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>32.5339848916082</v>
+        <v>34.0985027359199</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>0.116916481496138</v>
+        <v>0.11962501832589</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>0.341100802129154</v>
+        <v>0.341694462503887</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0.958630527817403</v>
+        <v>0.956749049429658</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">6297*C60</f>
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.00508178497697316</v>
+        <v>0.00682864856280769</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.661538461538462</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.01729937530034</v>
+        <v>2.00178168779803</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>24.7077637256613</v>
+        <v>32.5339848916082</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>0.101249600786663</v>
+        <v>0.116916481496138</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0.341021944577927</v>
+        <v>0.341100802129154</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0.969480209823557</v>
+        <v>0.958630527817403</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">6297*C61</f>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.0104811815150071</v>
+        <v>0.00508178497697316</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.66</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1.18845295967973</v>
+        <v>2.01729937530034</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>4.50708473551011</v>
+        <v>24.7077637256613</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>0.111608203965706</v>
+        <v>0.101249600786663</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0.339436659994281</v>
+        <v>0.341021944577927</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0.962050410648541</v>
+        <v>0.969480209823557</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">6297*C62</f>
+        <v>32</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.00682864856280769</v>
+        <v>0.0104811815150071</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.641791044776119</v>
+        <v>0.66</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.91164136091875</v>
+        <v>1.18845295967973</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>69.9728753318869</v>
+        <v>4.50708473551011</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>0.141005587104374</v>
+        <v>0.111608203965706</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0.336385435932728</v>
+        <v>0.339436659994281</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0.935552407932011</v>
+        <v>0.962050410648541</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">6297*C63</f>
+        <v>65.9999999999997</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.00619342544068604</v>
+        <v>0.00682864856280769</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.661016949152542</v>
+        <v>0.641791044776119</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1.19028416608909</v>
+        <v>2.91164136091875</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.69329074125533</v>
+        <v>69.9728753318869</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>0.0858599804093965</v>
+        <v>0.141005587104374</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0.33608468275471</v>
+        <v>0.336385435932728</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0.977537674154108</v>
+        <v>0.935552407932011</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">6297*C64</f>
+        <v>43</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.00587581387962522</v>
+        <v>0.00619342544068604</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.649122807017544</v>
+        <v>0.661016949152542</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1.96421254963454</v>
+        <v>1.19028416608909</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>26.3961748636782</v>
+        <v>2.69329074125533</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>0.107430663042153</v>
+        <v>0.0858599804093965</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0.333451360260334</v>
+        <v>0.33608468275471</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0.963350785340314</v>
+        <v>0.977537674154108</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">6297*C65</f>
+        <v>39</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.00603461966015563</v>
+        <v>0.00587581387962522</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.655172413793103</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1.17975999132261</v>
+        <v>1.96421254963454</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.36249217702988</v>
+        <v>26.3961748636782</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>0.0843765538399173</v>
+        <v>0.107430663042153</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0.333019435378107</v>
+        <v>0.333451360260334</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0.977822007392664</v>
+        <v>0.963350785340314</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">6297*C66</f>
+        <v>37</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.0163569953946324</v>
+        <v>0.00603461966015563</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.631901840490798</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1.13785698872478</v>
+        <v>1.17975999132261</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>3.9716658489936</v>
+        <v>2.36249217702988</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>0.136425516397489</v>
+        <v>0.0843765538399173</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>0.330677829024352</v>
+        <v>0.333019435378107</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0.937306719145347</v>
+        <v>0.977822007392664</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">6297*C67</f>
+        <v>38</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.00809909480705098</v>
+        <v>0.0163569953946324</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.645569620253165</v>
+        <v>0.631901840490798</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1.16246837252908</v>
+        <v>1.13785698872478</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.63745663707043</v>
+        <v>3.9716658489936</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>0.0970306217609227</v>
+        <v>0.136425516397489</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>0.330076774667617</v>
+        <v>0.330677829024352</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0.969645390070922</v>
+        <v>0.937306719145347</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">6297*C68</f>
+        <v>103</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.0101635699539463</v>
+        <v>0.00809909480705098</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.633663366336634</v>
+        <v>0.645569620253165</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1.14102894418696</v>
+        <v>1.16246837252908</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.54975098432346</v>
+        <v>2.63745663707043</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>0.10768903144574</v>
+        <v>0.0970306217609227</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>0.325982383768832</v>
+        <v>0.330076774667617</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>0.960950764006791</v>
+        <v>0.969645390070922</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">6297*C69</f>
+        <v>51</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.00825790058758139</v>
+        <v>0.0101635699539463</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.626506024096386</v>
+        <v>0.633663366336634</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1.8957753165473</v>
+        <v>1.14102894418696</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>33.3127278618693</v>
+        <v>2.54975098432346</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>0.125120438380139</v>
+        <v>0.10768903144574</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>0.325747005320658</v>
+        <v>0.325982383768832</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>0.946022727272727</v>
+        <v>0.960950764006791</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">6297*C70</f>
+        <v>63.9999999999999</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.0098459583928855</v>
+        <v>0.00825790058758139</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.63265306122449</v>
+        <v>0.626506024096386</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1.13920970161013</v>
+        <v>1.8957753165473</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.40943235951001</v>
+        <v>33.3127278618693</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>0.105908504487717</v>
+        <v>0.125120438380139</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0.325191271818994</v>
+        <v>0.325747005320658</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>0.962071893574866</v>
+        <v>0.946022727272727</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">6297*C71</f>
+        <v>52</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.00936954105129427</v>
+        <v>0.0098459583928855</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.621052631578947</v>
+        <v>0.63265306122449</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1.87927362856926</v>
+        <v>1.13920970161013</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>36.8082449533015</v>
+        <v>2.40943235951001</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>0.132694880871473</v>
+        <v>0.105908504487717</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0.324702192771694</v>
+        <v>0.325191271818994</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>0.938119981105337</v>
+        <v>0.962071893574866</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">6297*C72</f>
+        <v>62</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.00539939653803398</v>
+        <v>0.00936954105129427</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.62962962962963</v>
+        <v>0.621052631578947</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1.13376544975058</v>
+        <v>1.87927362856926</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1.21719350796467</v>
+        <v>36.8082449533015</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>0.0782409690911726</v>
+        <v>0.132694880871473</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0.319676124508838</v>
+        <v>0.324702192771694</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>0.978959340346887</v>
+        <v>0.938119981105337</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">6297*C73</f>
+        <v>59</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.00778148324599016</v>
+        <v>0.00539939653803398</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.6125</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1.85339380105718</v>
+        <v>1.13376544975058</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>29.1281738960219</v>
+        <v>1.21719350796467</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>0.120092267907424</v>
+        <v>0.0782409690911726</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0.318023185968284</v>
+        <v>0.319676124508838</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>0.947443181818182</v>
+        <v>0.978959340346887</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">6297*C74</f>
+        <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.00539939653803398</v>
+        <v>0.00778148324599016</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.618181818181818</v>
+        <v>0.6125</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1.11315153248239</v>
+        <v>1.85339380105718</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>0.887219543787775</v>
+        <v>29.1281738960219</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.0775264247259773</v>
+        <v>0.120092267907424</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>0.313952218784933</v>
+        <v>0.318023185968284</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>0.978396816372939</v>
+        <v>0.947443181818182</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">6297*C75</f>
+        <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.0103223757344767</v>
+        <v>0.00539939653803398</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.601851851851852</v>
+        <v>0.618181818181818</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1.083746385791</v>
+        <v>1.11315153248239</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>0.962513243810839</v>
+        <v>0.887219543787775</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.105767846697453</v>
+        <v>0.0775264247259773</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>0.310219606223324</v>
+        <v>0.313952218784933</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>0.957344632768362</v>
+        <v>0.978396816372939</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">6297*C76</f>
+        <v>34</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.0103223757344767</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>0.601851851851852</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>1.083746385791</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>0.962513243810839</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>0.105767846697453</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>0.310219606223324</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>0.957344632768362</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">6297*C77</f>
+        <v>64.9999999999998</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="2" t="n">
+      <c r="B78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="2" t="n">
         <v>0.00539939653803398</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D78" s="2" t="n">
         <v>0.607142857142857</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E78" s="2" t="n">
         <v>1.0932738265452</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F78" s="2" t="n">
         <v>0.613938299128079</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G78" s="2" t="n">
         <v>0.0768311064229283</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H78" s="2" t="n">
         <v>0.308432738265452</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I78" s="2" t="n">
         <v>0.977834612105712</v>
       </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">6297*C78</f>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77"/>
+  <autoFilter ref="A1:I78"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
